--- a/biology/Virologie/Françoise_Brun-Vézinet/Françoise_Brun-Vézinet.xlsx
+++ b/biology/Virologie/Françoise_Brun-Vézinet/Françoise_Brun-Vézinet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Brun-V%C3%A9zinet</t>
+          <t>Françoise_Brun-Vézinet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Françoise Brun-Vézinet est une virologue française qui a participé à la découverte du virus de l'immunodéficience humaine (VIH).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Brun-V%C3%A9zinet</t>
+          <t>Françoise_Brun-Vézinet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1982, elle travaille avec Willy Rozenbaum de l'hôpital Bichat-Claude-Bernard à Paris. C'est grâce à elle que Willy Rozenbaum entre en contact avec les rétrovirologues de l'Institut Pasteur comme Jean-Claude Chermann[1]. Elle est une des signataires de l'article de Science du 20 mai 1983 qui est la date officielle de la découverte du VIH[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1982, elle travaille avec Willy Rozenbaum de l'hôpital Bichat-Claude-Bernard à Paris. C'est grâce à elle que Willy Rozenbaum entre en contact avec les rétrovirologues de l'Institut Pasteur comme Jean-Claude Chermann. Elle est une des signataires de l'article de Science du 20 mai 1983 qui est la date officielle de la découverte du VIH.
 BNF=
-En tant que virologue travaillant en milieu hospitalier, elle a accès à nombre de patients infectés par le VIH, elle transmet des échantillons de sang à l'Institut Pasteur. C'est à ce titre qu'elle contribue en 1985 à la mise au point des premiers tests VIH[1].
+En tant que virologue travaillant en milieu hospitalier, elle a accès à nombre de patients infectés par le VIH, elle transmet des échantillons de sang à l'Institut Pasteur. C'est à ce titre qu'elle contribue en 1985 à la mise au point des premiers tests VIH.
 Elle a dirigé le laboratoire de virologie de l'hôpital Bichat-Claude-Bernard.
 </t>
         </is>
